--- a/Gráficos.xlsx
+++ b/Gráficos.xlsx
@@ -14,13 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
-  <si>
-    <t>20KB</t>
-  </si>
-  <si>
-    <t>200KB</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
   <si>
     <t>15 MB</t>
   </si>
@@ -388,10 +382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:L14"/>
+  <dimension ref="A3:R14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -399,183 +393,149 @@
     <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>641</v>
       </c>
-      <c r="I3" s="1">
+      <c r="G3" s="1">
         <v>662</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1</v>
       </c>
       <c r="B7" s="2">
-        <v>2.03E-4</v>
+        <v>0.18167</v>
       </c>
       <c r="C7" s="2">
-        <v>2.1909999999999998E-3</v>
-      </c>
-      <c r="D7" s="2">
+        <v>1.911808</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.31533299999999997</v>
+      </c>
+      <c r="H7" s="2">
+        <v>3.36653</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1</v>
+      </c>
+      <c r="L7" s="2">
         <v>0.18167</v>
       </c>
-      <c r="E7" s="2">
+      <c r="M7" s="2">
         <v>1.911808</v>
       </c>
-      <c r="H7" s="1">
+      <c r="P7" s="1">
         <v>1</v>
       </c>
-      <c r="I7" s="2">
-        <v>3.3399999999999999E-4</v>
-      </c>
-      <c r="J7" s="2">
-        <v>3.5000000000000001E-3</v>
-      </c>
-      <c r="K7" s="2">
+      <c r="Q7" s="2">
         <v>0.31533299999999997</v>
       </c>
-      <c r="L7" s="2">
+      <c r="R7" s="2">
         <v>3.36653</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="H8" s="1">
+      <c r="F8" s="1">
         <v>2</v>
       </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>4</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="H9" s="1">
+      <c r="F9" s="1">
         <v>4</v>
       </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="H10" s="1">
+      <c r="F10" s="1">
         <v>8</v>
       </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>16</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="H11" s="1">
+      <c r="F11" s="1">
         <v>16</v>
       </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>20</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="H12" s="1">
+      <c r="F12" s="1">
         <v>20</v>
       </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>28</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="H13" s="1">
+      <c r="F13" s="1">
         <v>28</v>
       </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>32</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="H14" s="1">
+      <c r="F14" s="1">
         <v>32</v>
       </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Gráficos.xlsx
+++ b/Gráficos.xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="3">
   <si>
     <t>15 MB</t>
   </si>
   <si>
     <t>150 MB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.357393 </t>
   </si>
 </sst>
 </file>
@@ -384,8 +387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:R14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -420,20 +423,16 @@
         <v>1</v>
       </c>
       <c r="B7" s="2">
-        <v>0.18167</v>
+        <v>0.254189</v>
       </c>
       <c r="C7" s="2">
-        <v>1.911808</v>
+        <v>2.117</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
       </c>
-      <c r="G7" s="2">
-        <v>0.31533299999999997</v>
-      </c>
-      <c r="H7" s="2">
-        <v>3.36653</v>
-      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
       <c r="K7" s="1">
         <v>1</v>
       </c>
@@ -457,8 +456,12 @@
       <c r="A8" s="1">
         <v>2</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="B8" s="2">
+        <v>0.129997</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1.074014</v>
+      </c>
       <c r="F8" s="1">
         <v>2</v>
       </c>
@@ -469,8 +472,12 @@
       <c r="A9" s="1">
         <v>4</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+      <c r="B9" s="2">
+        <v>6.5333000000000002E-2</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.558948</v>
+      </c>
       <c r="F9" s="1">
         <v>4</v>
       </c>
@@ -481,8 +488,12 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+      <c r="B10" s="2">
+        <v>3.6775000000000002E-2</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="F10" s="1">
         <v>8</v>
       </c>
@@ -493,8 +504,12 @@
       <c r="A11" s="1">
         <v>16</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="B11" s="2">
+        <v>3.1687E-2</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.30189100000000002</v>
+      </c>
       <c r="F11" s="1">
         <v>16</v>
       </c>
@@ -505,8 +520,12 @@
       <c r="A12" s="1">
         <v>20</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="B12" s="2">
+        <v>2.7754000000000001E-2</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.241983</v>
+      </c>
       <c r="F12" s="1">
         <v>20</v>
       </c>
@@ -517,8 +536,12 @@
       <c r="A13" s="1">
         <v>28</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="B13" s="2">
+        <v>6.1818999999999999E-2</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.26135199999999997</v>
+      </c>
       <c r="F13" s="1">
         <v>28</v>
       </c>
@@ -529,8 +552,12 @@
       <c r="A14" s="1">
         <v>32</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="B14" s="2">
+        <v>0.49224099999999998</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1.1221099999999999</v>
+      </c>
       <c r="F14" s="1">
         <v>32</v>
       </c>

--- a/Gráficos.xlsx
+++ b/Gráficos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="6">
   <si>
     <t>15 MB</t>
   </si>
@@ -22,14 +22,23 @@
     <t>150 MB</t>
   </si>
   <si>
-    <t xml:space="preserve">0.357393 </t>
+    <t>200KB</t>
+  </si>
+  <si>
+    <t>20KB</t>
+  </si>
+  <si>
+    <t>Processos</t>
+  </si>
+  <si>
+    <t>Tempo (s)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -37,13 +46,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -73,12 +94,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -96,6 +126,7266 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>641</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>20KB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$7:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$7:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3.2299999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4300000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.6900000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.8100000000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.0012E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>200KB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$7:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$7:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3.1779999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6708999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.3800000000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.8E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.34E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.088E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>15 MB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$7:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$7:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.254189</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.129997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.5333000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.6775000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1687E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7754000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.1818999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.49224099999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>150 MB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$7:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$7:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.117</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.074014</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.558948</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.35739300000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.30189100000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.241983</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.26135199999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1221099999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1468643104"/>
+        <c:axId val="1753490400"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1468643104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Processos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1753490400"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1753490400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tempo (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1468643104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>662</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>20KB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$H$7:$H$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$7:$I$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3.4499999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.31E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4799999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.33E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9500000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.7100000000000002E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>200KB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$H$7:$H$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$7:$J$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3.447E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.823E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.062E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.3599999999999996E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.3099999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.4200000000000002E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>15 MB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$H$7:$H$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$7:$K$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.27585100000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14102700000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0147299999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0009999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6731000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4833000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.9017999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.9144E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>150 MB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$H$7:$H$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$7:$L$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3.002888</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.466702</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.71601599999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.39228400000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.241592</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.199936</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.26292599999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.26620100000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1753493120"/>
+        <c:axId val="1753493664"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1753493120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Processos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1753493664"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1753493664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tempo (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1753493120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>20 KBytes</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$S$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>641</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$R$6:$R$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$6:$S$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.2299999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4300000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.6900000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.8100000000000003E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$T$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>662</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$R$6:$R$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$T$6:$T$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.4499999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.31E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4799999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.33E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9500000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.7100000000000002E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1753492032"/>
+        <c:axId val="1753495840"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1753492032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Processos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1753495840"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1753495840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tempo (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1753492032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>200 KBytes</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$W$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>641</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$V$6:$V$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$W$6:$W$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.1779999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6708999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.3800000000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.8E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.34E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.088E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$X$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>662</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$V$6:$V$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$X$6:$X$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.447E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.823E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.062E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.3599999999999996E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.3099999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.4200000000000002E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1759858496"/>
+        <c:axId val="1759851424"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1759858496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Processos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1759851424"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1759851424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tempo (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1759858496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>15 MBytes</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AA$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>641</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$Z$6:$Z$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AA$6:$AA$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.254189</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.129997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.5333000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.6775000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1687E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7754000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.1818999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.49224099999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AB$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>662</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$Z$6:$Z$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AB$6:$AB$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.27585100000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14102700000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0147299999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0009999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6731000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4833000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.9017999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.9144E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1753197360"/>
+        <c:axId val="1753198992"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1753197360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Processos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1753198992"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1753198992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tempo (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1753197360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>150 MBytes</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AE$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>641</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$AD$6:$AD$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AE$6:$AE$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.117</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.074014</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.558948</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.35739300000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.30189100000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.241983</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.26135199999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1221099999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AF$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>662</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$AD$6:$AD$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AF$6:$AF$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3.002888</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.466702</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.71601599999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.39228400000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.241592</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.199936</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.26292599999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.26620100000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1759849792"/>
+        <c:axId val="1759859040"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1759849792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Processos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1759859040"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1759859040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tempo (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1759849792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>290512</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>595312</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>319087</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>14287</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>71437</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>376237</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>109537</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>414337</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -385,10 +7675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:R14"/>
+  <dimension ref="A3:AF37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -396,175 +7686,641 @@
     <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B3" s="1">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="D3" s="1">
         <v>641</v>
       </c>
-      <c r="G3" s="1">
+      <c r="K3" s="1">
         <v>662</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="W4" s="5"/>
+      <c r="Z4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="5"/>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="S5" s="5">
+        <v>641</v>
+      </c>
+      <c r="T5" s="5">
+        <v>662</v>
+      </c>
+      <c r="U5" s="5"/>
+      <c r="W5" s="5">
+        <v>641</v>
+      </c>
+      <c r="X5" s="5">
+        <v>662</v>
+      </c>
+      <c r="AA5" s="5">
+        <v>641</v>
+      </c>
+      <c r="AB5" s="5">
+        <v>662</v>
+      </c>
+      <c r="AC5" s="5"/>
+      <c r="AE5" s="5">
+        <v>641</v>
+      </c>
+      <c r="AF5" s="5">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="I6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5">
+        <v>1</v>
+      </c>
+      <c r="S6" s="2">
+        <v>3.2299999999999999E-4</v>
+      </c>
+      <c r="T6" s="2">
+        <v>3.4499999999999998E-4</v>
+      </c>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5">
+        <v>1</v>
+      </c>
+      <c r="W6" s="2">
+        <v>3.1779999999999998E-3</v>
+      </c>
+      <c r="X6" s="2">
+        <v>3.447E-3</v>
+      </c>
+      <c r="Z6" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>0.254189</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>0.27585100000000001</v>
+      </c>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>2.117</v>
+      </c>
+      <c r="AF6" s="2">
+        <v>3.002888</v>
+      </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1</v>
       </c>
       <c r="B7" s="2">
+        <v>3.2299999999999999E-4</v>
+      </c>
+      <c r="C7" s="2">
+        <v>3.1779999999999998E-3</v>
+      </c>
+      <c r="D7" s="2">
         <v>0.254189</v>
       </c>
-      <c r="C7" s="2">
+      <c r="E7" s="2">
         <v>2.117</v>
       </c>
-      <c r="F7" s="1">
+      <c r="H7" s="1">
         <v>1</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="K7" s="1">
-        <v>1</v>
+      <c r="I7" s="2">
+        <v>3.4499999999999998E-4</v>
+      </c>
+      <c r="J7" s="2">
+        <v>3.447E-3</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0.27585100000000001</v>
       </c>
       <c r="L7" s="2">
-        <v>0.18167</v>
-      </c>
-      <c r="M7" s="2">
-        <v>1.911808</v>
-      </c>
-      <c r="P7" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>0.31533299999999997</v>
-      </c>
-      <c r="R7" s="2">
-        <v>3.36653</v>
+        <v>3.002888</v>
+      </c>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5">
+        <v>2</v>
+      </c>
+      <c r="S7" s="2">
+        <v>2.2000000000000001E-4</v>
+      </c>
+      <c r="T7" s="2">
+        <v>2.31E-4</v>
+      </c>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5">
+        <v>2</v>
+      </c>
+      <c r="W7" s="2">
+        <v>1.6708999999999999E-3</v>
+      </c>
+      <c r="X7" s="2">
+        <v>1.823E-3</v>
+      </c>
+      <c r="Z7" s="5">
+        <v>2</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>0.129997</v>
+      </c>
+      <c r="AB7" s="2">
+        <v>0.14102700000000001</v>
+      </c>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5">
+        <v>2</v>
+      </c>
+      <c r="AE7" s="2">
+        <v>1.074014</v>
+      </c>
+      <c r="AF7" s="2">
+        <v>1.466702</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2</v>
       </c>
       <c r="B8" s="2">
+        <v>2.2000000000000001E-4</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1.6708999999999999E-3</v>
+      </c>
+      <c r="D8" s="2">
         <v>0.129997</v>
       </c>
-      <c r="C8" s="2">
+      <c r="E8" s="2">
         <v>1.074014</v>
       </c>
-      <c r="F8" s="1">
+      <c r="H8" s="1">
         <v>2</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="I8" s="2">
+        <v>2.31E-4</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1.823E-3</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0.14102700000000001</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1.466702</v>
+      </c>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5">
+        <v>4</v>
+      </c>
+      <c r="S8" s="2">
+        <v>1.4300000000000001E-4</v>
+      </c>
+      <c r="T8" s="2">
+        <v>1.4799999999999999E-4</v>
+      </c>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5">
+        <v>4</v>
+      </c>
+      <c r="W8" s="2">
+        <v>9.3800000000000003E-4</v>
+      </c>
+      <c r="X8" s="2">
+        <v>1.062E-3</v>
+      </c>
+      <c r="Z8" s="5">
+        <v>4</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>6.5333000000000002E-2</v>
+      </c>
+      <c r="AB8" s="2">
+        <v>7.0147299999999996E-2</v>
+      </c>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="5">
+        <v>4</v>
+      </c>
+      <c r="AE8" s="2">
+        <v>0.558948</v>
+      </c>
+      <c r="AF8" s="2">
+        <v>0.71601599999999999</v>
+      </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>4</v>
       </c>
       <c r="B9" s="2">
+        <v>1.4300000000000001E-4</v>
+      </c>
+      <c r="C9" s="2">
+        <v>9.3800000000000003E-4</v>
+      </c>
+      <c r="D9" s="2">
         <v>6.5333000000000002E-2</v>
       </c>
-      <c r="C9" s="2">
+      <c r="E9" s="2">
         <v>0.558948</v>
       </c>
-      <c r="F9" s="1">
+      <c r="H9" s="1">
         <v>4</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="I9" s="2">
+        <v>1.4799999999999999E-4</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1.062E-3</v>
+      </c>
+      <c r="K9" s="2">
+        <v>7.0147299999999996E-2</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0.71601599999999999</v>
+      </c>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5">
+        <v>8</v>
+      </c>
+      <c r="S9" s="2">
+        <v>2.3000000000000001E-4</v>
+      </c>
+      <c r="T9" s="2">
+        <v>2.33E-4</v>
+      </c>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5">
+        <v>8</v>
+      </c>
+      <c r="W9" s="2">
+        <v>5.8E-4</v>
+      </c>
+      <c r="X9" s="2">
+        <v>6.3599999999999996E-4</v>
+      </c>
+      <c r="Z9" s="5">
+        <v>8</v>
+      </c>
+      <c r="AA9" s="2">
+        <v>3.6775000000000002E-2</v>
+      </c>
+      <c r="AB9" s="2">
+        <v>4.0009999999999997E-2</v>
+      </c>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="5">
+        <v>8</v>
+      </c>
+      <c r="AE9" s="2">
+        <v>0.35739300000000002</v>
+      </c>
+      <c r="AF9" s="2">
+        <v>0.39228400000000002</v>
+      </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="2">
+        <v>2.3000000000000001E-4</v>
+      </c>
+      <c r="C10" s="2">
+        <v>5.8E-4</v>
+      </c>
+      <c r="D10" s="2">
         <v>3.6775000000000002E-2</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" s="1">
+      <c r="E10" s="2">
+        <v>0.35739300000000002</v>
+      </c>
+      <c r="H10" s="1">
         <v>8</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="I10" s="2">
+        <v>2.33E-4</v>
+      </c>
+      <c r="J10" s="2">
+        <v>6.3599999999999996E-4</v>
+      </c>
+      <c r="K10" s="2">
+        <v>4.0009999999999997E-2</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0.39228400000000002</v>
+      </c>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5">
+        <v>16</v>
+      </c>
+      <c r="S10" s="2">
+        <v>3.6900000000000002E-4</v>
+      </c>
+      <c r="T10" s="4">
+        <v>2.9500000000000001E-4</v>
+      </c>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5">
+        <v>16</v>
+      </c>
+      <c r="W10" s="4">
+        <v>8.34E-4</v>
+      </c>
+      <c r="X10" s="4">
+        <v>7.3099999999999999E-4</v>
+      </c>
+      <c r="Z10" s="5">
+        <v>16</v>
+      </c>
+      <c r="AA10" s="4">
+        <v>3.1687E-2</v>
+      </c>
+      <c r="AB10" s="4">
+        <v>2.6731000000000001E-2</v>
+      </c>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="5">
+        <v>16</v>
+      </c>
+      <c r="AE10" s="4">
+        <v>0.30189100000000002</v>
+      </c>
+      <c r="AF10" s="4">
+        <v>0.241592</v>
+      </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>16</v>
       </c>
       <c r="B11" s="2">
+        <v>3.6900000000000002E-4</v>
+      </c>
+      <c r="C11" s="4">
+        <v>8.34E-4</v>
+      </c>
+      <c r="D11" s="4">
         <v>3.1687E-2</v>
       </c>
-      <c r="C11" s="2">
+      <c r="E11" s="4">
         <v>0.30189100000000002</v>
       </c>
-      <c r="F11" s="1">
+      <c r="H11" s="1">
         <v>16</v>
       </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="I11" s="4">
+        <v>2.9500000000000001E-4</v>
+      </c>
+      <c r="J11" s="4">
+        <v>7.3099999999999999E-4</v>
+      </c>
+      <c r="K11" s="4">
+        <v>2.6731000000000001E-2</v>
+      </c>
+      <c r="L11" s="4">
+        <v>0.241592</v>
+      </c>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5">
+        <v>20</v>
+      </c>
+      <c r="S11" s="3">
+        <v>5.8100000000000003E-4</v>
+      </c>
+      <c r="T11" s="2">
+        <v>3.7100000000000002E-3</v>
+      </c>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5">
+        <v>20</v>
+      </c>
+      <c r="W11" s="2">
+        <v>1.088E-3</v>
+      </c>
+      <c r="X11" s="4">
+        <v>9.4200000000000002E-4</v>
+      </c>
+      <c r="Z11" s="5">
+        <v>20</v>
+      </c>
+      <c r="AA11" s="2">
+        <v>2.7754000000000001E-2</v>
+      </c>
+      <c r="AB11" s="2">
+        <v>2.4833000000000001E-2</v>
+      </c>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="5">
+        <v>20</v>
+      </c>
+      <c r="AE11" s="2">
+        <v>0.241983</v>
+      </c>
+      <c r="AF11" s="2">
+        <v>0.199936</v>
+      </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>20</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="3">
+        <v>5.8100000000000003E-4</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1.088E-3</v>
+      </c>
+      <c r="D12" s="2">
         <v>2.7754000000000001E-2</v>
       </c>
-      <c r="C12" s="2">
+      <c r="E12" s="2">
         <v>0.241983</v>
       </c>
-      <c r="F12" s="1">
+      <c r="H12" s="1">
         <v>20</v>
       </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="I12" s="2">
+        <v>3.7100000000000002E-3</v>
+      </c>
+      <c r="J12" s="4">
+        <v>9.4200000000000002E-4</v>
+      </c>
+      <c r="K12" s="2">
+        <v>2.4833000000000001E-2</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0.199936</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>28</v>
+      </c>
+      <c r="AA12" s="2">
+        <v>6.1818999999999999E-2</v>
+      </c>
+      <c r="AB12" s="2">
+        <v>2.9017999999999999E-2</v>
+      </c>
+      <c r="AD12" s="1">
+        <v>28</v>
+      </c>
+      <c r="AE12" s="2">
+        <v>0.26135199999999997</v>
+      </c>
+      <c r="AF12" s="2">
+        <v>0.26292599999999999</v>
+      </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>28</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="2">
         <v>6.1818999999999999E-2</v>
       </c>
-      <c r="C13" s="2">
+      <c r="E13" s="2">
         <v>0.26135199999999997</v>
       </c>
-      <c r="F13" s="1">
+      <c r="H13" s="1">
         <v>28</v>
       </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="2">
+        <v>2.9017999999999999E-2</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0.26292599999999999</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>32</v>
+      </c>
+      <c r="AA13" s="2">
+        <v>0.49224099999999998</v>
+      </c>
+      <c r="AB13" s="2">
+        <v>2.9144E-2</v>
+      </c>
+      <c r="AD13" s="1">
+        <v>32</v>
+      </c>
+      <c r="AE13" s="2">
+        <v>1.1221099999999999</v>
+      </c>
+      <c r="AF13" s="2">
+        <v>0.26620100000000002</v>
+      </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>32</v>
       </c>
       <c r="B14" s="2">
+        <v>3.0012E-2</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="2">
         <v>0.49224099999999998</v>
       </c>
-      <c r="C14" s="2">
+      <c r="E14" s="2">
         <v>1.1221099999999999</v>
       </c>
-      <c r="F14" s="1">
+      <c r="H14" s="1">
         <v>32</v>
       </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="2">
+        <v>2.9144E-2</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0.26620100000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K36" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="L37" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Gráficos.xlsx
+++ b/Gráficos.xlsx
@@ -470,7 +470,7 @@
                   <c:v>6.1818999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.49224099999999998</c:v>
+                  <c:v>0.29224099999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -580,11 +580,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1468643104"/>
-        <c:axId val="1753490400"/>
+        <c:axId val="-1841683184"/>
+        <c:axId val="-1841684272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1468643104"/>
+        <c:axId val="-1841683184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -683,7 +683,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1753490400"/>
+        <c:crossAx val="-1841684272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -691,7 +691,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1753490400"/>
+        <c:axId val="-1841684272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -798,7 +798,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1468643104"/>
+        <c:crossAx val="-1841683184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1036,7 +1036,7 @@
                   <c:v>2.9500000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.7100000000000002E-3</c:v>
+                  <c:v>3.7100000000000002E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1328,11 +1328,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1753493120"/>
-        <c:axId val="1753493664"/>
+        <c:axId val="-1841678832"/>
+        <c:axId val="-1841679920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1753493120"/>
+        <c:axId val="-1841678832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1431,7 +1431,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1753493664"/>
+        <c:crossAx val="-1841679920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1439,7 +1439,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1753493664"/>
+        <c:axId val="-1841679920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1546,7 +1546,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1753493120"/>
+        <c:crossAx val="-1841678832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1860,7 +1860,7 @@
                   <c:v>2.9500000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.7100000000000002E-3</c:v>
+                  <c:v>3.7100000000000002E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1876,11 +1876,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1753492032"/>
-        <c:axId val="1753495840"/>
+        <c:axId val="-1841681552"/>
+        <c:axId val="-1841684816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1753492032"/>
+        <c:axId val="-1841681552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1979,7 +1979,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1753495840"/>
+        <c:crossAx val="-1841684816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1987,7 +1987,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1753495840"/>
+        <c:axId val="-1841684816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2094,7 +2094,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1753492032"/>
+        <c:crossAx val="-1841681552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2424,11 +2424,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1759858496"/>
-        <c:axId val="1759851424"/>
+        <c:axId val="-1840103520"/>
+        <c:axId val="-1840095360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1759858496"/>
+        <c:axId val="-1840103520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2527,7 +2527,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1759851424"/>
+        <c:crossAx val="-1840095360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2535,7 +2535,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1759851424"/>
+        <c:axId val="-1840095360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2642,7 +2642,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1759858496"/>
+        <c:crossAx val="-1840103520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2886,7 +2886,7 @@
                   <c:v>6.1818999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.49224099999999998</c:v>
+                  <c:v>0.29224099999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2996,11 +2996,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1753197360"/>
-        <c:axId val="1753198992"/>
+        <c:axId val="-1840106784"/>
+        <c:axId val="-1840102976"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1753197360"/>
+        <c:axId val="-1840106784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3099,7 +3099,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1753198992"/>
+        <c:crossAx val="-1840102976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3107,7 +3107,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1753198992"/>
+        <c:axId val="-1840102976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3214,7 +3214,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1753197360"/>
+        <c:crossAx val="-1840106784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3568,11 +3568,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1759849792"/>
-        <c:axId val="1759859040"/>
+        <c:axId val="-1840105152"/>
+        <c:axId val="-1840092640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1759849792"/>
+        <c:axId val="-1840105152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3671,7 +3671,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1759859040"/>
+        <c:crossAx val="-1840092640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3679,7 +3679,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1759859040"/>
+        <c:axId val="-1840092640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3786,7 +3786,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1759849792"/>
+        <c:crossAx val="-1840105152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7677,8 +7677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AF37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="R16" workbookViewId="0">
+      <selection activeCell="AA14" sqref="AA14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8158,7 +8158,7 @@
         <v>5.8100000000000003E-4</v>
       </c>
       <c r="T11" s="2">
-        <v>3.7100000000000002E-3</v>
+        <v>3.7100000000000002E-4</v>
       </c>
       <c r="U11" s="5"/>
       <c r="V11" s="5">
@@ -8210,7 +8210,7 @@
         <v>20</v>
       </c>
       <c r="I12" s="2">
-        <v>3.7100000000000002E-3</v>
+        <v>3.7100000000000002E-4</v>
       </c>
       <c r="J12" s="4">
         <v>9.4200000000000002E-4</v>
@@ -8267,7 +8267,7 @@
         <v>32</v>
       </c>
       <c r="AA13" s="2">
-        <v>0.49224099999999998</v>
+        <v>0.29224099999999997</v>
       </c>
       <c r="AB13" s="2">
         <v>2.9144E-2</v>
@@ -8291,7 +8291,7 @@
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="2">
-        <v>0.49224099999999998</v>
+        <v>0.29224099999999997</v>
       </c>
       <c r="E14" s="2">
         <v>1.1221099999999999</v>
